--- a/Legenda.xlsx
+++ b/Legenda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Insurance RM_Developments\Analisi Dir. Inv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Insurance RM_Developments\Analisi Dir. Inv\Dashboard - correlation - stress test - exposure\Input dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCDB983-2BB0-4408-B36F-4C50715B678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA25E80-04CB-4DD9-8731-1E7E32D27285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EGQ" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
   <si>
     <t>Chinese stock market crash beginning with the popping of the stock market bubble on 12 June 2015</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>JPYEUR</t>
+  </si>
+  <si>
+    <t>ITL 10Y ITL_10yr - Spread Yield: 75.00bps</t>
+  </si>
+  <si>
+    <t>MSCI World Net TR MSCIWLDNET - Index Level -10.00pct</t>
   </si>
 </sst>
 </file>
@@ -679,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -713,6 +719,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F72429-785E-4A0D-BACC-AA84A5591D10}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FCB092-0DB6-4EDB-948E-4EFFCB58E9EF}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1393,9 @@
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1460,7 +1471,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1526,7 +1537,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Legenda.xlsx
+++ b/Legenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Insurance RM_Developments\Analisi Dir. Inv\Dashboard - correlation - stress test - exposure\Input dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA25E80-04CB-4DD9-8731-1E7E32D27285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DCCB95-3AC0-47C9-84D5-18F25DA67164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,19 +151,6 @@
     <t>EUR/USD EUR_FX_USD - FX: -15.40pct</t>
   </si>
   <si>
-    <t xml:space="preserve">sy 3M USD_3m - Yield: 100.00bps	
-Tsy 1Y USD_1yr - Yield: 100.00bps	
-Tsy 2Y USD_2yr - Yield: 100.00bps
-Tsy 3Y USD_3yr - Yield: 100.00bps
-Tsy 5Y USD_5yr - Yield: 100.00bps	
-Tsy 7Y USD_7yr - Yield: 100.00bps	
-Tsy 10Y USD_10yr - Yield: 100.00bps	
-Tsy 15Y USD_15yr - Yield: 100.00bps	
-Tsy 20Y USD_20yr - Yield: 100.00bps
-Tsy 25Y USD_25yr - Yield: 100.00bps	
-Tsy 30Y USD_30yr - Yield: 100.00bps	</t>
-  </si>
-  <si>
     <t>DEM 3M EUR_3m - Yield: 100.00bps	
 DEM 1Y EUR_1yr - Yield: 100.00bps	
 DEM 2Y EUR_2yr - Yield: 100.00bps	
@@ -480,6 +467,19 @@
   </si>
   <si>
     <t>MSCI World Net TR MSCIWLDNET - Index Level -10.00pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsy 3M USD_3m - Yield: 100.00bps	
+Tsy 1Y USD_1yr - Yield: 100.00bps	
+Tsy 2Y USD_2yr - Yield: 100.00bps
+Tsy 3Y USD_3yr - Yield: 100.00bps
+Tsy 5Y USD_5yr - Yield: 100.00bps	
+Tsy 7Y USD_7yr - Yield: 100.00bps	
+Tsy 10Y USD_10yr - Yield: 100.00bps	
+Tsy 15Y USD_15yr - Yield: 100.00bps	
+Tsy 20Y USD_20yr - Yield: 100.00bps
+Tsy 25Y USD_25yr - Yield: 100.00bps	
+Tsy 30Y USD_30yr - Yield: 100.00bps	</t>
   </si>
 </sst>
 </file>
@@ -1018,200 +1018,200 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
         <v>87</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
         <v>90</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
         <v>93</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
         <v>96</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>97</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
         <v>99</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
         <v>108</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>109</v>
-      </c>
-      <c r="C17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1236,101 +1236,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,21 +1468,21 @@
         <v>20</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1493,40 +1493,40 @@
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1534,10 +1534,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Legenda.xlsx
+++ b/Legenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Insurance RM_Developments\Analisi Dir. Inv\Dashboard - correlation - stress test - exposure\Input dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DCCB95-3AC0-47C9-84D5-18F25DA67164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D6D3D2-4A9F-4C3B-88F6-27A29640A85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EGQ" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
   <si>
     <t>Chinese stock market crash beginning with the popping of the stock market bubble on 12 June 2015</t>
   </si>
@@ -271,9 +271,6 @@
     <t>E7X</t>
   </si>
   <si>
-    <t>Eurizon Fund - Dynamic Asset Allocation</t>
-  </si>
-  <si>
     <t>EGQ</t>
   </si>
   <si>
@@ -283,37 +280,19 @@
     <t>E7U</t>
   </si>
   <si>
-    <t>Eurizon Fund - Active Allocation</t>
-  </si>
-  <si>
     <t>EGZKC</t>
   </si>
   <si>
-    <t>Eurizon Fund - Strategic Allocation</t>
-  </si>
-  <si>
     <t>EGZLK</t>
   </si>
   <si>
-    <t>Eurizon Fund - Sustainable Multiasset</t>
-  </si>
-  <si>
     <t>E8J</t>
   </si>
   <si>
-    <t>Eurizon Fund - Conservative Allocation</t>
-  </si>
-  <si>
     <t>EYP</t>
   </si>
   <si>
-    <t>Eurizon Fund - Absolute Prudent</t>
-  </si>
-  <si>
     <t>EI2</t>
-  </si>
-  <si>
-    <t>Eurizon Investment Sicav - Flexible Macro Factors</t>
   </si>
   <si>
     <t>Asset Class</t>
@@ -480,6 +459,30 @@
 Tsy 20Y USD_20yr - Yield: 100.00bps
 Tsy 25Y USD_25yr - Yield: 100.00bps	
 Tsy 30Y USD_30yr - Yield: 100.00bps	</t>
+  </si>
+  <si>
+    <t>Dynamic Asset Allocation</t>
+  </si>
+  <si>
+    <t>Flexible Multistrategy</t>
+  </si>
+  <si>
+    <t>Active Allocation</t>
+  </si>
+  <si>
+    <t>Strategic Allocation</t>
+  </si>
+  <si>
+    <t>Sustainable Multiasset</t>
+  </si>
+  <si>
+    <t>Conservative Allocation</t>
+  </si>
+  <si>
+    <t>Absolute Prudent</t>
+  </si>
+  <si>
+    <t>Flexible Macro Factors</t>
   </si>
 </sst>
 </file>
@@ -1024,194 +1027,194 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1223,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA164E3-A97B-4800-8048-EACFB27E48A0}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1250,87 +1253,87 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
         <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FCB092-0DB6-4EDB-948E-4EFFCB58E9EF}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -1438,7 +1441,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1471,7 +1474,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1537,7 +1540,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
